--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3437046.732163675</v>
+        <v>3434474.777645769</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244759</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="X4" t="n">
-        <v>89.83938363460571</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>65.09474806312745</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>105.0839683962665</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>185.8386997826079</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>33.21446231455224</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>56.75885316694674</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.53432244437123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>121.8000472740347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.090968037234</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9086980046678</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>829.562656169633</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="C8" t="n">
-        <v>460.6001392292213</v>
+        <v>1410.622100242646</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1052.356401635896</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>666.5681490376517</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>659.6226482884482</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>241.6588401866351</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2663.599129084331</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2663.599129084331</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2663.599129084331</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2663.599129084331</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2332.53624174076</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1979.767586470646</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1606.301828209567</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>1216.162496233755</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,31 +5045,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458823</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,31 +5294,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>219.0505596597677</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6838,16 +6838,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,13 +6950,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7184,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,10 +7555,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8228,7 +8228,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627449</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.44677382459265</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.08115057384113</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>24.63391537253447</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.52450498097836</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778546</v>
-      </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="G2" t="n">
-        <v>726431.9397210059</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210057</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210053</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577091</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670407</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670429</v>
+        <v>5067.592601670467</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670439</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670456</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670449</v>
+        <v>5067.592601670469</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670442</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134953.8703278307</v>
+        <v>-134953.8703278308</v>
       </c>
       <c r="C6" t="n">
         <v>455014.0088867139</v>
       </c>
       <c r="D6" t="n">
-        <v>455014.0088867137</v>
+        <v>455014.0088867138</v>
       </c>
       <c r="E6" t="n">
-        <v>-324130.9604622816</v>
+        <v>-324165.6983877168</v>
       </c>
       <c r="F6" t="n">
-        <v>620241.8172954279</v>
+        <v>620207.079369992</v>
       </c>
       <c r="G6" t="n">
-        <v>620241.8172954286</v>
+        <v>620207.0793699924</v>
       </c>
       <c r="H6" t="n">
-        <v>620241.8172954282</v>
+        <v>620207.0793699919</v>
       </c>
       <c r="I6" t="n">
-        <v>620241.8172954281</v>
+        <v>620207.079369992</v>
       </c>
       <c r="J6" t="n">
-        <v>443818.5981028348</v>
+        <v>443783.8601773995</v>
       </c>
       <c r="K6" t="n">
-        <v>620241.817295428</v>
+        <v>620207.0793699925</v>
       </c>
       <c r="L6" t="n">
-        <v>620241.8172954279</v>
+        <v>620207.0793699925</v>
       </c>
       <c r="M6" t="n">
-        <v>496033.3065873692</v>
+        <v>495998.5686619339</v>
       </c>
       <c r="N6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.0793699924</v>
       </c>
       <c r="O6" t="n">
-        <v>620241.8172954279</v>
+        <v>620207.0793699921</v>
       </c>
       <c r="P6" t="n">
-        <v>620241.817295428</v>
+        <v>620207.0793699924</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245874</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723559</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>39.53802575917729</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>202.9246923626428</v>
       </c>
       <c r="X4" t="n">
-        <v>135.8702717544314</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>151.3535722945304</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.1539702597871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.9938968421886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.22219630222429</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>138.0840729817492</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.26394026025948</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>229.7641451696443</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,7 +34451,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530448</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
